--- a/demofile.xlsx
+++ b/demofile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.Sandeep Reddy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.Sandeep Reddy\Desktop\poc\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3681BD2C-01AE-468C-A6BE-7D977A74D94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DABED8-7A4A-4D93-8A71-34D09ABC5046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3564" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{C5BDBEDC-D49E-41C8-886C-204C02ACF9E2}"/>
+    <workbookView xWindow="1032" yWindow="2952" windowWidth="17280" windowHeight="8964" xr2:uid="{C5BDBEDC-D49E-41C8-886C-204C02ACF9E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>CONS_ID</t>
   </si>
@@ -98,6 +98,36 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>DDLE2</t>
+  </si>
+  <si>
+    <t>DDLE3</t>
+  </si>
+  <si>
+    <t>DDLE4</t>
+  </si>
+  <si>
+    <t>DDLE5</t>
+  </si>
+  <si>
+    <t>DDLE6</t>
+  </si>
+  <si>
+    <t>bluedart</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -227,31 +257,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -522,20 +527,45 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -551,18 +581,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8166209D-ADB9-4EE5-89CC-800F7C8F2E59}" name="Table1" displayName="Table1" ref="A1:I15" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8166209D-ADB9-4EE5-89CC-800F7C8F2E59}" name="Table1" displayName="Table1" ref="A1:I15" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A1:I15" xr:uid="{8166209D-ADB9-4EE5-89CC-800F7C8F2E59}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F4502541-730A-47A4-A7DC-A8D41F777A85}" name="Order_No"/>
-    <tableColumn id="2" xr3:uid="{1FD7B883-B338-4DBC-AD0F-9D25CC7015AD}" name="ContLP_No" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{A98A58C0-5044-4AE8-B8B4-AA6A6BBD30CC}" name="CONS_ID" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{EB013006-5A92-470C-93F9-ADC54622094B}" name="SEQ_NO" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{771D0F06-162A-47EC-B989-900E9560D39D}" name="total_Carton" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{7B6D2D77-1625-4E7C-9C13-E971AABEE03A}" name="Coruier" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{46E6C2C8-C524-4834-B55E-E5765D018798}" name="Pck_Weight_in_KG" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{F350C971-5BDB-4671-923D-1250F7E4C87E}" name="Mode" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{44CFD6AE-3DCA-4473-9529-B77E7EFE4CD1}" name="Pin_Code" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{1FD7B883-B338-4DBC-AD0F-9D25CC7015AD}" name="ContLP_No" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{A98A58C0-5044-4AE8-B8B4-AA6A6BBD30CC}" name="CONS_ID" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{EB013006-5A92-470C-93F9-ADC54622094B}" name="SEQ_NO" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{771D0F06-162A-47EC-B989-900E9560D39D}" name="total_Carton" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{7B6D2D77-1625-4E7C-9C13-E971AABEE03A}" name="Coruier" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{46E6C2C8-C524-4834-B55E-E5765D018798}" name="Pck_Weight_in_KG" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{F350C971-5BDB-4671-923D-1250F7E4C87E}" name="Mode" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{44CFD6AE-3DCA-4473-9529-B77E7EFE4CD1}" name="Pin_Code" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -868,7 +898,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -933,7 +963,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
@@ -950,25 +980,25 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3">
         <v>10</v>
       </c>
-      <c r="G3" s="3">
-        <v>12</v>
-      </c>
       <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="5">
-        <v>613005</v>
+        <v>569878</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -979,19 +1009,19 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2">
-        <v>23</v>
+        <v>454</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>3</v>
@@ -1008,19 +1038,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
-        <v>23</v>
+        <v>589</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>3</v>
@@ -1034,28 +1064,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
-        <v>23</v>
+        <v>888</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="5">
-        <v>613005</v>
+        <v>502278</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1066,19 +1096,19 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>3</v>
@@ -1092,22 +1122,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
-        <v>23</v>
+        <v>600</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>3</v>
@@ -1124,25 +1154,25 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G9" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="5">
-        <v>613005</v>
+        <v>564654</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1150,28 +1180,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2">
-        <v>23</v>
+        <v>565</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="5">
-        <v>613005</v>
+        <v>568465</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1182,25 +1212,25 @@
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I11" s="5">
-        <v>613005</v>
+        <v>502269</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1208,13 +1238,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1223,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>3</v>
@@ -1243,22 +1273,22 @@
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>23</v>
+        <v>989</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="3">
         <v>10</v>
       </c>
-      <c r="G13" s="3">
-        <v>12</v>
-      </c>
       <c r="H13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="5">
-        <v>613005</v>
+        <v>652036</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1269,19 +1299,19 @@
         <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2">
-        <v>23</v>
+        <v>787</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>3</v>
@@ -1301,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1310,13 +1340,13 @@
         <v>10</v>
       </c>
       <c r="G15" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="5">
-        <v>613005</v>
+        <v>659878</v>
       </c>
     </row>
   </sheetData>
